--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,154 +49,139 @@
     <t>thin</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>missing</t>
+    <t>paint</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
+    <t>okay</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
     <t>plastic</t>
   </si>
   <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
     <t>apart</t>
   </si>
   <si>
-    <t>di</t>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>cheap</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>bit</t>
+    <t>though</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>money</t>
+  </si>
+  <si>
+    <t>would</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
-    <t>would</t>
+    <t>back</t>
+  </si>
+  <si>
+    <t>work</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>money</t>
+    <t>used</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
+    <t>expected</t>
+  </si>
+  <si>
     <t>use</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>buy</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
-  </si>
-  <si>
-    <t>awesome</t>
   </si>
   <si>
     <t>favorite</t>
@@ -599,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -607,10 +592,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -668,13 +653,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -686,19 +671,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -710,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -718,13 +703,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -736,19 +721,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K4">
-        <v>0.8153846153846154</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L4">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="M4">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -760,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -789,16 +774,16 @@
         <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K5">
-        <v>0.6774193548387096</v>
+        <v>0.6236559139784946</v>
       </c>
       <c r="L5">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="M5">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -810,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -818,13 +803,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.75</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D6">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -836,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K6">
-        <v>0.5849056603773585</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -860,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -868,13 +853,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7368421052631579</v>
+        <v>0.734375</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -886,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K7">
         <v>0.5</v>
@@ -939,16 +924,16 @@
         <v>55</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K8">
-        <v>0.3768115942028986</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="L8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -960,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -968,13 +953,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7183098591549296</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="C9">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c r="D9">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -986,19 +971,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K9">
-        <v>0.3319672131147541</v>
+        <v>0.3418032786885246</v>
       </c>
       <c r="L9">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="M9">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1010,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>815</v>
+        <v>803</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1018,13 +1003,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7150537634408602</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C10">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1036,19 +1021,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K10">
-        <v>0.2840746054519369</v>
+        <v>0.296987087517934</v>
       </c>
       <c r="L10">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="M10">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1060,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1068,13 +1053,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6842105263157895</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1086,19 +1071,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K11">
-        <v>0.2655601659751037</v>
+        <v>0.2385892116182573</v>
       </c>
       <c r="L11">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="M11">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1110,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>354</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1118,13 +1103,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6486486486486487</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C12">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1136,10 +1121,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K12">
         <v>0.2333333333333333</v>
@@ -1168,13 +1153,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5966386554621849</v>
+        <v>0.5625</v>
       </c>
       <c r="C13">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="D13">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1186,19 +1171,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K13">
-        <v>0.2108433734939759</v>
+        <v>0.1867469879518072</v>
       </c>
       <c r="L13">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M13">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1210,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1218,13 +1203,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5952380952380952</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1236,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K14">
-        <v>0.1773700305810398</v>
+        <v>0.1834862385321101</v>
       </c>
       <c r="L14">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M14">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1260,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1268,13 +1253,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5625</v>
+        <v>0.5126050420168067</v>
       </c>
       <c r="C15">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="D15">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1286,19 +1271,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K15">
-        <v>0.164021164021164</v>
+        <v>0.1164021164021164</v>
       </c>
       <c r="L15">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M15">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1310,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1318,13 +1303,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5370370370370371</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C16">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1336,19 +1321,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K16">
-        <v>0.1004016064257028</v>
+        <v>0.0963855421686747</v>
       </c>
       <c r="L16">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M16">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1360,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1368,13 +1353,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5272727272727272</v>
+        <v>0.4579710144927536</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1386,31 +1371,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>26</v>
+        <v>187</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K17">
-        <v>0.08939526730937773</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="L17">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M17">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1418,13 +1403,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5111111111111111</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C18">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D18">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1436,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K18">
-        <v>0.03114860480207658</v>
+        <v>0.03634003893575601</v>
       </c>
       <c r="L18">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="M18">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1460,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1493</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1468,13 +1453,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4898550724637681</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="C19">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="D19">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1486,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>176</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1494,13 +1479,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4698795180722892</v>
+        <v>0.4094488188976378</v>
       </c>
       <c r="C20">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D20">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1512,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>44</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1520,13 +1505,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4603174603174603</v>
+        <v>0.40625</v>
       </c>
       <c r="C21">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D21">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1538,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1546,13 +1531,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4259259259259259</v>
+        <v>0.4</v>
       </c>
       <c r="C22">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D22">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1564,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1572,13 +1557,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4098360655737705</v>
+        <v>0.3789473684210526</v>
       </c>
       <c r="C23">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D23">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1590,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1598,13 +1583,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3937007874015748</v>
+        <v>0.3258426966292135</v>
       </c>
       <c r="C24">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D24">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1616,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1624,13 +1609,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3789473684210526</v>
+        <v>0.2843601895734597</v>
       </c>
       <c r="C25">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D25">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1642,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>59</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1650,13 +1635,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.375</v>
+        <v>0.2821782178217822</v>
       </c>
       <c r="C26">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="D26">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1668,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>40</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1676,13 +1661,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3366336633663367</v>
+        <v>0.28125</v>
       </c>
       <c r="C27">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="D27">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1694,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>134</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1702,13 +1687,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3258426966292135</v>
+        <v>0.2735042735042735</v>
       </c>
       <c r="C28">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D28">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1720,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1728,13 +1713,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3203125</v>
+        <v>0.2628865979381443</v>
       </c>
       <c r="C29">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D29">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1746,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>87</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1754,13 +1739,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2890995260663507</v>
+        <v>0.1835443037974684</v>
       </c>
       <c r="C30">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D30">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1772,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>150</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1780,25 +1765,25 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2653061224489796</v>
+        <v>0.1827637444279346</v>
       </c>
       <c r="C31">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="D31">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>72</v>
+        <v>550</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1806,13 +1791,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2577319587628866</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="C32">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D32">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1824,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>144</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1832,13 +1817,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2564102564102564</v>
+        <v>0.1642857142857143</v>
       </c>
       <c r="C33">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D33">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1850,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>87</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1858,25 +1843,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.211864406779661</v>
+        <v>0.1523809523809524</v>
       </c>
       <c r="C34">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D34">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>93</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1884,13 +1869,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1920289855072464</v>
+        <v>0.145</v>
       </c>
       <c r="C35">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="D35">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1902,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>223</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1910,25 +1895,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1842496285289748</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C36">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="D36">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="E36">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>549</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1936,13 +1921,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.175</v>
+        <v>0.1355140186915888</v>
       </c>
       <c r="C37">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D37">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1954,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1962,13 +1947,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1613924050632911</v>
+        <v>0.1299559471365639</v>
       </c>
       <c r="C38">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D38">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1980,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>265</v>
+        <v>395</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1988,13 +1973,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1542056074766355</v>
+        <v>0.1293103448275862</v>
       </c>
       <c r="C39">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D39">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2006,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>181</v>
+        <v>303</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2014,13 +1999,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1487341772151899</v>
+        <v>0.1209677419354839</v>
       </c>
       <c r="C40">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D40">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2032,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>269</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2040,13 +2025,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1464968152866242</v>
+        <v>0.1161048689138577</v>
       </c>
       <c r="C41">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D41">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2058,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>134</v>
+        <v>236</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2066,13 +2051,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1387665198237885</v>
+        <v>0.1145833333333333</v>
       </c>
       <c r="C42">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="D42">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2084,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>391</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2092,13 +2077,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.132183908045977</v>
+        <v>0.08493150684931507</v>
       </c>
       <c r="C43">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D43">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2110,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>302</v>
+        <v>334</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2118,25 +2103,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1314285714285714</v>
+        <v>0.06754530477759473</v>
       </c>
       <c r="C44">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D44">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>152</v>
+        <v>566</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2144,25 +2129,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1129032258064516</v>
+        <v>0.06696428571428571</v>
       </c>
       <c r="C45">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D45">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>220</v>
+        <v>418</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2170,13 +2155,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1048689138576779</v>
+        <v>0.06478873239436619</v>
       </c>
       <c r="C46">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D46">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2188,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>239</v>
+        <v>332</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2196,155 +2181,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.0958904109589041</v>
+        <v>0.03168567807351078</v>
       </c>
       <c r="C47">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D47">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48">
-        <v>0.06197183098591549</v>
-      </c>
-      <c r="C48">
-        <v>22</v>
-      </c>
-      <c r="D48">
-        <v>22</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49">
-        <v>0.05766062602965404</v>
-      </c>
-      <c r="C49">
-        <v>35</v>
-      </c>
-      <c r="D49">
-        <v>36</v>
-      </c>
-      <c r="E49">
-        <v>0.03</v>
-      </c>
-      <c r="F49">
-        <v>0.97</v>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50">
-        <v>0.05357142857142857</v>
-      </c>
-      <c r="C50">
-        <v>24</v>
-      </c>
-      <c r="D50">
-        <v>25</v>
-      </c>
-      <c r="E50">
-        <v>0.04</v>
-      </c>
-      <c r="F50">
-        <v>0.96</v>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51">
-        <v>0.0514018691588785</v>
-      </c>
-      <c r="C51">
-        <v>22</v>
-      </c>
-      <c r="D51">
-        <v>28</v>
-      </c>
-      <c r="E51">
-        <v>0.21</v>
-      </c>
-      <c r="F51">
-        <v>0.79</v>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52">
-        <v>0.03919089759797725</v>
-      </c>
-      <c r="C52">
-        <v>31</v>
-      </c>
-      <c r="D52">
-        <v>34</v>
-      </c>
-      <c r="E52">
-        <v>0.09</v>
-      </c>
-      <c r="F52">
-        <v>0.91</v>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>760</v>
+        <v>764</v>
       </c>
     </row>
   </sheetData>
